--- a/111/111.xlsx
+++ b/111/111.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -52,6 +52,15 @@
     <t xml:space="preserve">H 01</t>
   </si>
   <si>
+    <t xml:space="preserve">H 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -77,15 +86,32 @@
   </si>
   <si>
     <t xml:space="preserve">MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL (WEB PACK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 01 (x1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 02 (x1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 03 (x2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINAL (100)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -118,7 +144,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,7 +166,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -167,6 +193,12 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFF4B183"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -202,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,6 +251,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,6 +285,26 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -276,7 +332,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -328,10 +384,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,9 +438,15 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -424,6 +486,15 @@
       <c r="J2" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -463,6 +534,15 @@
       <c r="J3" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -502,6 +582,15 @@
       <c r="J4" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -538,6 +627,15 @@
       <c r="J5" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -577,6 +675,15 @@
       <c r="J6" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -616,56 +723,65 @@
       <c r="J7" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>90</v>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="n">
-        <f aca="false">SUM(B2:J2)</f>
+      <c r="B11" s="10" t="n">
+        <f aca="false">SUM(B2:M2)</f>
         <v>18.3333333333333</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="10" t="n">
         <f aca="false">(B11*45)/B8</f>
-        <v>9.16666666666667</v>
+        <v>6.875</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>0</v>
@@ -673,171 +789,306 @@
       <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="11" t="n">
         <f aca="false">C11+D11+E11</f>
-        <v>9.16666666666667</v>
-      </c>
-      <c r="G11" s="11" t="n">
+        <v>6.875</v>
+      </c>
+      <c r="G11" s="12" t="n">
         <f aca="false">((F11-F17)*50)/(F18-F17)+50</f>
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="9" t="n">
-        <f aca="false">SUM(B3:J3)</f>
+      <c r="B12" s="10" t="n">
+        <f aca="false">SUM(B3:M3)</f>
         <v>61.1666666666667</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="10" t="n">
         <f aca="false">(B12*45)/B8</f>
-        <v>30.5833333333333</v>
+        <v>22.9375</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11" t="n">
         <f aca="false">C12+D12+E12</f>
-        <v>30.5833333333333</v>
-      </c>
-      <c r="G12" s="11" t="n">
+        <v>72.9375</v>
+      </c>
+      <c r="G12" s="12" t="n">
         <f aca="false">((F12-F17)*50)/(F18-F17)+50</f>
+        <v>96.1975524475525</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <f aca="false">SUM(B4:M4)</f>
+        <v>66.3333333333333</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <f aca="false">(B13*45)/B8</f>
+        <v>24.875</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <f aca="false">C13+D13+E13</f>
+        <v>78.375</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <f aca="false">((F13-F17)*50)/(F18-F17)+50</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <f aca="false">SUM(B5:M5)</f>
+        <v>41.6666666666667</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <f aca="false">(B14*45)/B8</f>
+        <v>15.625</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <f aca="false">C14+D14+E14</f>
+        <v>24.625</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <f aca="false">((F14-F17)*50)/(F18-F17)+50</f>
+        <v>62.4125874125874</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <f aca="false">SUM(B6:M6)</f>
+        <v>54.5</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <f aca="false">(B15*45)/B8</f>
+        <v>20.4375</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <f aca="false">C15+D15+E15</f>
+        <v>67.4375</v>
+      </c>
+      <c r="G15" s="12" t="n">
+        <f aca="false">((F15-F17)*50)/(F18-F17)+50</f>
+        <v>92.3513986013986</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <f aca="false">SUM(B7:M7)</f>
+        <v>55.8333333333333</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <f aca="false">(B16*45)/B8</f>
+        <v>20.9375</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <f aca="false">C16+D16+E16</f>
+        <v>20.9375</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <f aca="false">((F16-F17)*50)/(F18-F17)+50</f>
+        <v>59.8339160839161</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <f aca="false">MIN(F11:F16)</f>
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <f aca="false">MAX(F11:F16)</f>
+        <v>78.375</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" s="17" t="n">
+        <f aca="false">((B27*1)+(C27*1.5)+(D27*2))/4.5</f>
+        <v>52.2222222222222</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="17" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E28" s="17" t="n">
+        <f aca="false">D28</f>
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="n">
-        <f aca="false">SUM(B4:J4)</f>
-        <v>56.3333333333333</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <f aca="false">(B13*45)/B8</f>
-        <v>28.1666666666667</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <f aca="false">C13+D13+E13</f>
-        <v>28.1666666666667</v>
-      </c>
-      <c r="G13" s="11" t="n">
-        <f aca="false">((F13-F17)*50)/(F18-F17)+50</f>
-        <v>94.3579766536965</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="B29" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C29" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D29" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" s="17" t="n">
+        <f aca="false">((B29*1)+(C29*1.5)+(D29*2))/4.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B14" s="9" t="n">
-        <f aca="false">SUM(B5:J5)</f>
-        <v>41.6666666666667</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <f aca="false">(B14*45)/B8</f>
-        <v>20.8333333333333</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <f aca="false">C14+D14+E14</f>
-        <v>20.8333333333333</v>
-      </c>
-      <c r="G14" s="11" t="n">
-        <f aca="false">((F14-F17)*50)/(F18-F17)+50</f>
-        <v>77.2373540856031</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="B30" s="17" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="C30" s="17" t="n">
+        <v>89.94</v>
+      </c>
+      <c r="D30" s="17" t="n">
+        <v>62.41</v>
+      </c>
+      <c r="E30" s="17" t="n">
+        <f aca="false">((B30*1)+(C30*1.5)+(D30*2))/4.5</f>
+        <v>78.0444444444444</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="9" t="n">
-        <f aca="false">SUM(B6:J6)</f>
-        <v>54.5</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <f aca="false">(B15*45)/B8</f>
-        <v>27.25</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <f aca="false">C15+D15+E15</f>
-        <v>27.25</v>
-      </c>
-      <c r="G15" s="11" t="n">
-        <f aca="false">((F15-F17)*50)/(F18-F17)+50</f>
-        <v>92.2178988326848</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="B31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17" t="n">
+        <v>92.35</v>
+      </c>
+      <c r="E31" s="17" t="n">
+        <f aca="false">D31</f>
+        <v>92.35</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <f aca="false">SUM(B7:J7)</f>
-        <v>55.8333333333333</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <f aca="false">(B16*45)/B8</f>
-        <v>27.9166666666667</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10" t="n">
-        <f aca="false">C16+D16+E16</f>
-        <v>27.9166666666667</v>
-      </c>
-      <c r="G16" s="11" t="n">
-        <f aca="false">((F16-F17)*50)/(F18-F17)+50</f>
-        <v>93.7743190661479</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="8" t="n">
-        <f aca="false">MIN(F11:F16)</f>
-        <v>9.16666666666667</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <f aca="false">MAX(F11:F16)</f>
-        <v>30.5833333333333</v>
+      <c r="B32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17" t="n">
+        <v>59.83</v>
+      </c>
+      <c r="E32" s="17" t="n">
+        <f aca="false">D32</f>
+        <v>59.83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
